--- a/Shomron.xlsx
+++ b/Shomron.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or_cohen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or_cohen\PycharmProjects\TestGithub1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405E693E-581B-48A2-89F6-8A171D50248C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC3503D-78F7-475D-8696-3370533C497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31605" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29430" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
